--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_4.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_4.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9830328980069173</v>
+        <v>0.9002724351196926</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8099445852918188</v>
+        <v>0.6435444689880322</v>
       </c>
       <c r="D2" t="n">
-        <v>0.80064749051298</v>
+        <v>0.6688410795604557</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9837232974953258</v>
+        <v>0.8951546884633019</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07062601501409019</v>
+        <v>0.3495960339916402</v>
       </c>
       <c r="G2" t="n">
-        <v>1.270901433278325</v>
+        <v>2.383619777203828</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7130723673124248</v>
+        <v>1.184536256714782</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1047617681529254</v>
+        <v>0.4427522831669092</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6144828865870497</v>
+        <v>1.387880446561854</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2657555550013775</v>
+        <v>0.5912664661484196</v>
       </c>
       <c r="L2" t="n">
-        <v>2.085894527557294</v>
+        <v>0.8642007627161772</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2699409393345574</v>
+        <v>0.6005783219406322</v>
       </c>
       <c r="N2" t="n">
-        <v>135.3007134354758</v>
+        <v>36.10195395936522</v>
       </c>
       <c r="O2" t="n">
-        <v>276.6358859786922</v>
+        <v>73.06653754759104</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9824331873462404</v>
+        <v>0.8993734743862359</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8092539880329779</v>
+        <v>0.6426428555030514</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8004816453605001</v>
+        <v>0.6680374943082552</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9830117076578653</v>
+        <v>0.894447749103273</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0731223266495329</v>
+        <v>0.3527473503554542</v>
       </c>
       <c r="G3" t="n">
-        <v>1.275519460328102</v>
+        <v>2.389648870729443</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7136655858065908</v>
+        <v>1.187410634567354</v>
       </c>
       <c r="I3" t="n">
-        <v>0.109341775040107</v>
+        <v>0.4457376242482204</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6214311875907984</v>
+        <v>1.394611822325394</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2704114025878585</v>
+        <v>0.5939253743993889</v>
       </c>
       <c r="L3" t="n">
-        <v>2.124276009840614</v>
+        <v>0.8629766459727468</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2746701118663854</v>
+        <v>0.6032791053386211</v>
       </c>
       <c r="N3" t="n">
-        <v>135.2312430654745</v>
+        <v>36.08400639934462</v>
       </c>
       <c r="O3" t="n">
-        <v>276.5664156086909</v>
+        <v>73.04858998757044</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9812624219437149</v>
+        <v>0.8965719329458589</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8080568291923442</v>
+        <v>0.6400597707248907</v>
       </c>
       <c r="D4" t="n">
-        <v>0.795566919334381</v>
+        <v>0.6667119842642211</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9812923838873644</v>
+        <v>0.8922456299363858</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07799566889327328</v>
+        <v>0.3625681835202321</v>
       </c>
       <c r="G4" t="n">
-        <v>1.283524867007828</v>
+        <v>2.406921970535016</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7312452758298307</v>
+        <v>1.192151907137375</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1204078615630564</v>
+        <v>0.4550369746402848</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6059373166339191</v>
+        <v>1.414197137780644</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2792770468428676</v>
+        <v>0.6021363496088175</v>
       </c>
       <c r="L4" t="n">
-        <v>2.199204995602244</v>
+        <v>0.8591617810326589</v>
       </c>
       <c r="M4" t="n">
-        <v>0.283675381156018</v>
+        <v>0.6116193951996343</v>
       </c>
       <c r="N4" t="n">
-        <v>135.1022039616871</v>
+        <v>36.02908545980995</v>
       </c>
       <c r="O4" t="n">
-        <v>276.4373765049035</v>
+        <v>72.99366904803577</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9809138510525772</v>
+        <v>0.8956028315812518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8078210420863071</v>
+        <v>0.6394950699701143</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7952235061208299</v>
+        <v>0.6685748634950719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.980946346401886</v>
+        <v>0.8914851540645701</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07944660453337296</v>
+        <v>0.3659653786087632</v>
       </c>
       <c r="G5" t="n">
-        <v>1.285101576471598</v>
+        <v>2.410698127082413</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7324736449824604</v>
+        <v>1.185488496144566</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1226350632223292</v>
+        <v>0.4582483955765651</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6121407844757943</v>
+        <v>1.420522100329678</v>
       </c>
       <c r="K5" t="n">
-        <v>0.281862740590829</v>
+        <v>0.6049507241162401</v>
       </c>
       <c r="L5" t="n">
-        <v>2.221513532635058</v>
+        <v>0.8578421536425556</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2863017969957643</v>
+        <v>0.6144780932922064</v>
       </c>
       <c r="N5" t="n">
-        <v>135.0653402481268</v>
+        <v>36.01043308804038</v>
       </c>
       <c r="O5" t="n">
-        <v>276.4005127913433</v>
+        <v>72.97501667626621</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.980852093979257</v>
+        <v>0.8893975641428153</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8071974129364349</v>
+        <v>0.632912302901481</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7945154758813946</v>
+        <v>0.6643937909549511</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9809460630732956</v>
+        <v>0.8866325752373025</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07970366999978679</v>
+        <v>0.3877180092775101</v>
       </c>
       <c r="G6" t="n">
-        <v>1.289271787468342</v>
+        <v>2.454717120781219</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7350062280949685</v>
+        <v>1.200443950188063</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1226368868106206</v>
+        <v>0.478740397779907</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6134632816450254</v>
+        <v>1.456229259730961</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2823183840981433</v>
+        <v>0.6226700645426196</v>
       </c>
       <c r="L6" t="n">
-        <v>2.225465985327553</v>
+        <v>0.8493924277689401</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2867646164328425</v>
+        <v>0.6324764956174594</v>
       </c>
       <c r="N6" t="n">
-        <v>135.05887929314</v>
+        <v>35.89495396760848</v>
       </c>
       <c r="O6" t="n">
-        <v>276.3940518363564</v>
+        <v>72.85953755583429</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9804862122519427</v>
+        <v>0.8860328841021315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8069535977573994</v>
+        <v>0.6293570212304924</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7939353864043591</v>
+        <v>0.661959538166655</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9804287288307767</v>
+        <v>0.8840153333516257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08122666245761588</v>
+        <v>0.3995129307647202</v>
       </c>
       <c r="G7" t="n">
-        <v>1.290902180693219</v>
+        <v>2.478491305685687</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7370811745188039</v>
+        <v>1.209151131265711</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1259666060800342</v>
+        <v>0.4897927739281515</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6180036359248255</v>
+        <v>1.472620819944572</v>
       </c>
       <c r="K7" t="n">
-        <v>0.285002916577385</v>
+        <v>0.6320703527019126</v>
       </c>
       <c r="L7" t="n">
-        <v>2.24888241587567</v>
+        <v>0.8448107357986472</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2894914276150842</v>
+        <v>0.6420248289184206</v>
       </c>
       <c r="N7" t="n">
-        <v>135.021023460644</v>
+        <v>35.83501829385721</v>
       </c>
       <c r="O7" t="n">
-        <v>276.3561960038604</v>
+        <v>72.79960188208304</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9801126365672732</v>
+        <v>0.8761397835725719</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8066890737534906</v>
+        <v>0.6175847959964462</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7936191534957997</v>
+        <v>0.6422223615125312</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9800595482165101</v>
+        <v>0.8763522690690662</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08278168121834008</v>
+        <v>0.434193299358555</v>
       </c>
       <c r="G8" t="n">
-        <v>1.292671053925377</v>
+        <v>2.557212230031866</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7382123212964835</v>
+        <v>1.279749867730255</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1283427638986866</v>
+        <v>0.5221532024244746</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6232340543778886</v>
+        <v>1.51171276569337</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2877180585544468</v>
+        <v>0.6589334559411557</v>
       </c>
       <c r="L8" t="n">
-        <v>2.272791259694515</v>
+        <v>0.8313392797583958</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2922493303641385</v>
+        <v>0.6693109991804302</v>
       </c>
       <c r="N8" t="n">
-        <v>134.9830969667856</v>
+        <v>35.66853090762287</v>
       </c>
       <c r="O8" t="n">
-        <v>276.318269510002</v>
+        <v>72.63311449584869</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9796987308809922</v>
+        <v>0.8748040849031706</v>
       </c>
       <c r="C9" t="n">
-        <v>0.806421746808323</v>
+        <v>0.6162591974926042</v>
       </c>
       <c r="D9" t="n">
-        <v>0.793480175498121</v>
+        <v>0.6410780159702422</v>
       </c>
       <c r="E9" t="n">
-        <v>0.979418216903536</v>
+        <v>0.8753175133026638</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08450457468745518</v>
+        <v>0.4388756051783256</v>
       </c>
       <c r="G9" t="n">
-        <v>1.29445867043864</v>
+        <v>2.566076513330878</v>
       </c>
       <c r="H9" t="n">
-        <v>0.738709437535773</v>
+        <v>1.283843125382056</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1324705657246216</v>
+        <v>0.5265228825883267</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6254343582666115</v>
+        <v>1.516631762895398</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2906967056701111</v>
+        <v>0.6624768714289773</v>
       </c>
       <c r="L9" t="n">
-        <v>2.299281223616497</v>
+        <v>0.82952045603836</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2952748881943197</v>
+        <v>0.6729102199200691</v>
       </c>
       <c r="N9" t="n">
-        <v>134.9418992155427</v>
+        <v>35.64707853112706</v>
       </c>
       <c r="O9" t="n">
-        <v>276.2770717587591</v>
+        <v>72.61166211935289</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9765239630120198</v>
+        <v>0.8734453015374738</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8034677527584213</v>
+        <v>0.6150119036312899</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7915685454670524</v>
+        <v>0.6405300346885406</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9767935404952539</v>
+        <v>0.8742637156706419</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09771963069829977</v>
+        <v>0.4436388346452393</v>
       </c>
       <c r="G10" t="n">
-        <v>1.314212042252225</v>
+        <v>2.574417173124747</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7455472273142276</v>
+        <v>1.285803222652922</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1493637749776592</v>
+        <v>0.5309729748312237</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6702062397267948</v>
+        <v>1.521703107917125</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3126013926685224</v>
+        <v>0.6660621852689427</v>
       </c>
       <c r="L10" t="n">
-        <v>2.502466367230731</v>
+        <v>0.8276701978382622</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3175245521163025</v>
+        <v>0.676551998869015</v>
       </c>
       <c r="N10" t="n">
-        <v>134.6513056235642</v>
+        <v>35.62548896610354</v>
       </c>
       <c r="O10" t="n">
-        <v>275.9864781667806</v>
+        <v>72.59007255432937</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9724985186466683</v>
+        <v>0.8692278481952711</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8008201188440027</v>
+        <v>0.611189207706941</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7863731957579113</v>
+        <v>0.6402230555725851</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9723755175879217</v>
+        <v>0.8709829536685244</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1144756503356902</v>
+        <v>0.4584231619648569</v>
       </c>
       <c r="G11" t="n">
-        <v>1.331916782429175</v>
+        <v>2.599979558372764</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7641306919801407</v>
+        <v>1.286901269151023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1777995033679355</v>
+        <v>0.544827336515831</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7200856119225362</v>
+        <v>1.536316364037075</v>
       </c>
       <c r="K11" t="n">
-        <v>0.338342504476884</v>
+        <v>0.6770695399771407</v>
       </c>
       <c r="L11" t="n">
-        <v>2.760094806613232</v>
+        <v>0.8219272826488798</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3436710607039741</v>
+        <v>0.6877327084105492</v>
       </c>
       <c r="N11" t="n">
-        <v>134.3347862788541</v>
+        <v>35.5599251740231</v>
       </c>
       <c r="O11" t="n">
-        <v>275.6699588220704</v>
+        <v>72.52450876224891</v>
       </c>
     </row>
   </sheetData>
